--- a/reproducibility-package/evaluation-strings.xlsx
+++ b/reproducibility-package/evaluation-strings.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\8VO SEMESTRE\Proyecto guiado\Reporte de RSL\ethical-persuasive-system-design-slr\reproducibility-package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA9FF40-3877-4916-9406-EB41873C2153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C5EBBC-0FCF-4940-B189-603A1A32A4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Evaluación de cadenas" sheetId="1" r:id="rId1"/>
+    <sheet name="Evaluation strings" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Cadena</t>
-  </si>
-  <si>
-    <t>Estudios encontrados</t>
-  </si>
-  <si>
-    <t>Estudios relevantes encontrados</t>
-  </si>
-  <si>
     <t>Recall</t>
   </si>
   <si>
@@ -66,12 +57,6 @@
     <t>(("Persuasive system" OR "Persuasive technology" OR "Behavior change system" OR "Motivational system") AND ("Ethics" OR "Ethical") AND ("Design" OR "System design"))</t>
   </si>
   <si>
-    <t>Cadenas para ACM</t>
-  </si>
-  <si>
-    <t>Cadena general</t>
-  </si>
-  <si>
     <t>("Persuasive system" OR "Persuasive technology" OR "Behavior change system" OR "Motivational system") AND ("Ethics" OR "Ethical") AND ("Design" OR "System design")</t>
   </si>
   <si>
@@ -102,9 +87,6 @@
     <t>("Persuasive*" OR "Behavior change*") AND ("Ethics" OR "Ethical") AND ("Dark Pattern*" OR "Deceptive*" OR "Manipulative*") AND ("Design" OR "System design" OR "User experience") NOT ("Robot*" OR "VR" OR "Virtual reality")</t>
   </si>
   <si>
-    <t>Cadenas para SpringerLink</t>
-  </si>
-  <si>
     <t>CB2.1</t>
   </si>
   <si>
@@ -141,9 +123,6 @@
     <t>((("Persuasive system" OR "Persuasive technology" OR "Behavior change system" OR "Motivational system" OR "Persuasive strategies" OR "Persuasion techniques") OR "Dark pattern*") AND ("Ethics" OR "Ethical")) AND ("Design" OR "System design") NOT ("ML" OR "LLM" OR "Robot*" OR "Philosophy" OR "VR" OR "Virtual reality")</t>
   </si>
   <si>
-    <t>Cadenas para ScienceDirect</t>
-  </si>
-  <si>
     <t>CB3.1</t>
   </si>
   <si>
@@ -166,6 +145,33 @@
   </si>
   <si>
     <t>2/2</t>
+  </si>
+  <si>
+    <t>General string</t>
+  </si>
+  <si>
+    <t>Strings for SpringerLink</t>
+  </si>
+  <si>
+    <t>Strings for ACM DL</t>
+  </si>
+  <si>
+    <t>Strings for ScienceDirect</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Studies found</t>
+  </si>
+  <si>
+    <t>Relevant studies found</t>
+  </si>
+  <si>
+    <t>String for IEEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">((("Persuasive system" OR "Persuasive technology" OR "Behavior change system" OR "Motivational system" OR "Persuasive strategies" OR "Persuasion techniques") OR "Dark pattern*") AND ("Ethics" OR "Ethical")) AND ("Design" OR "System design") </t>
   </si>
 </sst>
 </file>
@@ -302,62 +308,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -380,23 +385,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>15241</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>17517</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>183930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1842</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>385380</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>187429</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1966D6AF-E34A-AD6F-1178-08A74140F23D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB74C19-E0C3-0B04-8CFB-3E70973F31E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -412,8 +417,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1707478" y="1244153"/>
-          <a:ext cx="3751113" cy="533847"/>
+          <a:off x="8636000" y="1226206"/>
+          <a:ext cx="3179380" cy="739223"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -424,23 +429,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>33020</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>30377</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>23321</xdr:rowOff>
+      <xdr:rowOff>15282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1723581</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>351693</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>135362</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1121D5-F196-6C7B-D829-A5CCFA550187}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18F9107-E57A-D102-F472-2C46BA16D787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -456,8 +461,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6296660" y="1250141"/>
-          <a:ext cx="4037521" cy="502459"/>
+          <a:off x="3947839" y="1246205"/>
+          <a:ext cx="3877316" cy="676926"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -732,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="B2:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,436 +757,419 @@
     <col min="14" max="14" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="Q2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="18"/>
+    </row>
+    <row r="3" spans="2:26" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="Q3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="16"/>
+    </row>
+    <row r="8" spans="2:26" ht="28.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="I10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="2:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>188</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.15390000000000001</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.06E-2</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="3">
+        <v>309</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N12" s="4">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <v>358</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="G13" s="8">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="7">
+        <v>28</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="N13" s="8">
+        <v>3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" ht="72" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="3" t="s">
+      <c r="D14" s="3">
+        <v>354</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="11" t="s">
+      <c r="F14" s="4">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G14" s="4">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>223</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1.34E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7">
+        <v>859</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="I10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="10" t="s">
+      <c r="F15" s="8">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="7">
+        <v>349</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="8">
+        <v>1</v>
+      </c>
+      <c r="N15" s="8">
+        <v>1.15E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3">
+        <v>643</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="3">
+        <v>242</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="7">
+        <v>138</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="G17" s="8">
+        <v>7.9699999999999993E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="G21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10" t="s">
+    </row>
+    <row r="22" spans="2:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="3">
+        <v>134</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="4">
+        <v>7.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="7">
+        <v>123</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="8">
+        <v>8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="B24" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="3">
+        <v>408</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="4">
         <v>1</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7">
-        <v>188</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.15390000000000001</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1.06E-2</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="7">
-        <v>309</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="N12" s="8">
-        <v>9.7000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="14">
-        <v>358</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0.84619999999999995</v>
-      </c>
-      <c r="G13" s="15">
-        <v>3.0700000000000002E-2</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="14">
-        <v>28</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="N13" s="15">
-        <v>3.5700000000000003E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="7">
-        <v>354</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="G14" s="8">
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="7">
-        <v>223</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="N14" s="8">
-        <v>1.34E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="14">
-        <v>859</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0.84619999999999995</v>
-      </c>
-      <c r="G15" s="15">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="14">
-        <v>349</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="15">
-        <v>1</v>
-      </c>
-      <c r="N15" s="15">
-        <v>1.15E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="7">
-        <v>643</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.76919999999999999</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="7">
-        <v>242</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="8">
-        <v>1</v>
-      </c>
-      <c r="N16" s="8">
-        <v>1.6500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="14">
-        <v>138</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0.84619999999999995</v>
-      </c>
-      <c r="G17" s="15">
-        <v>7.9699999999999993E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="7">
-        <v>134</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="8">
-        <v>7.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="14">
-        <v>123</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G23" s="15">
-        <v>8.0999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="B24" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="7">
-        <v>408</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="G24" s="4">
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q3:Z3"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="C2:L2"/>
